--- a/Resultados/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/Resultados/field_36ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_36ha_100ha_18%_12m_0_LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="279" documentId="11_F9F843619AFE46DEE151EF2793AB7319C77AC905" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC4FAE3E-F16B-4514-9869-CBBDDEFD7F6D}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="11_F9F843619AFE46DEE151EF2793AB7319C77AC905" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C7AA220-2A1B-4CA4-A1F4-478BFAF73461}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="70">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Resultado 28</t>
+  </si>
+  <si>
+    <t>ield_36ha_100ha_18%_12m_0_LM\</t>
   </si>
 </sst>
 </file>
@@ -4427,13 +4430,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C86A836-83E9-4C25-87F3-BE3C2766BB44}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -4461,8 +4464,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -4502,7 +4508,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -4533,7 +4539,7 @@
         <v>1.75464</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -4564,7 +4570,7 @@
         <v>1.9704599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -4595,7 +4601,7 @@
         <v>2.1126240000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -4626,7 +4632,7 @@
         <v>2.225196</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -4657,7 +4663,7 @@
         <v>2.3010839999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -4688,7 +4694,7 @@
         <v>2.3717880000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -4719,7 +4725,7 @@
         <v>2.4188039999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -4750,7 +4756,7 @@
         <v>2.460852</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -4781,7 +4787,7 @@
         <v>2.492496</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -4812,7 +4818,7 @@
         <v>2.5139519999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -4843,7 +4849,7 @@
         <v>2.5359479999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>2.5558199999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -4905,7 +4911,7 @@
         <v>2.55924</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
